--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value280.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value280.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9619407232209803</v>
+        <v>1.386024832725525</v>
       </c>
       <c r="B1">
-        <v>2.187485620713604</v>
+        <v>1.462569952011108</v>
       </c>
       <c r="C1">
-        <v>2.516624336752974</v>
+        <v>1.641091227531433</v>
       </c>
       <c r="D1">
-        <v>2.365992684826638</v>
+        <v>2.522682666778564</v>
       </c>
       <c r="E1">
-        <v>0.956076102677995</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
